--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB310.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB310.xlsx
@@ -509,28 +509,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
         <v>71.48240661621094</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.960464477539062e-08</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.192092895507812e-07</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="I2" t="n">
         <v>-0.0175933837890625</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.960464477539062e-08</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.192092895507812e-07</v>
+        <v>0.0003961057809647173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01759338378956734</v>
+        <v>0.01759784228077297</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
         <v>-71.48240661621094</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>-5.960464477539062e-08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.960464477539062e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0.0175933837890625</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.960464477539062e-08</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5.960464477539062e-08</v>
+        <v>0.0003959865716751665</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01759338378926444</v>
+        <v>0.01759783959792208</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>319.73828125</v>
+        <v>319.7381591796875</v>
       </c>
       <c r="G4" t="n">
-        <v>389.2621765136719</v>
+        <v>389.2619018554688</v>
       </c>
       <c r="H4" t="n">
-        <v>113.8340682983398</v>
+        <v>113.8340530395508</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.76171875</v>
+        <v>-1.7618408203125</v>
       </c>
       <c r="J4" t="n">
-        <v>3.412811279296875</v>
+        <v>3.41253662109375</v>
       </c>
       <c r="K4" t="n">
-        <v>-5.054603576660156</v>
+        <v>-5.054222106933594</v>
       </c>
       <c r="L4" t="n">
-        <v>6.348224247723389</v>
+        <v>6.34780673718424</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-325.4488525390625</v>
+        <v>-325.4491271972656</v>
       </c>
       <c r="G5" t="n">
-        <v>387.9885559082031</v>
+        <v>387.9889221191406</v>
       </c>
       <c r="H5" t="n">
-        <v>114.2294158935547</v>
+        <v>114.2294464111328</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.9488525390625</v>
+        <v>-3.949127197265625</v>
       </c>
       <c r="J5" t="n">
-        <v>2.139190673828125</v>
+        <v>2.139556884765625</v>
       </c>
       <c r="K5" t="n">
-        <v>-4.659255981445312</v>
+        <v>-4.658828735351562</v>
       </c>
       <c r="L5" t="n">
-        <v>6.471339846962722</v>
+        <v>6.471320921471015</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>326.4926147460938</v>
+        <v>326.49267578125</v>
       </c>
       <c r="G6" t="n">
-        <v>-390.5808410644531</v>
+        <v>-390.5809020996094</v>
       </c>
       <c r="H6" t="n">
-        <v>115.2456207275391</v>
+        <v>115.2456588745117</v>
       </c>
       <c r="I6" t="n">
-        <v>4.99261474609375</v>
+        <v>4.99267578125</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.731475830078125</v>
+        <v>-4.731536865234375</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.643051147460938</v>
+        <v>-3.642616271972656</v>
       </c>
       <c r="L6" t="n">
-        <v>7.783629435972829</v>
+        <v>7.78350215960606</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-320.5708618164062</v>
+        <v>-320.5709838867188</v>
       </c>
       <c r="G7" t="n">
-        <v>-391.2993774414062</v>
+        <v>-391.299560546875</v>
       </c>
       <c r="H7" t="n">
-        <v>114.6975631713867</v>
+        <v>114.6975860595703</v>
       </c>
       <c r="I7" t="n">
-        <v>0.92913818359375</v>
+        <v>0.92901611328125</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.45001220703125</v>
+        <v>-5.4501953125</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.191108703613281</v>
+        <v>-4.190689086914062</v>
       </c>
       <c r="L7" t="n">
-        <v>6.937674177021037</v>
+        <v>6.937548191278659</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
-        <v>178.2032470703125</v>
+        <v>178.2032318115234</v>
       </c>
       <c r="G8" t="n">
         <v>1.210321426391602</v>
       </c>
       <c r="H8" t="n">
-        <v>120.9356384277344</v>
+        <v>120.9356536865234</v>
       </c>
       <c r="I8" t="n">
-        <v>4.934677124023438</v>
+        <v>4.934661865234375</v>
       </c>
       <c r="J8" t="n">
         <v>1.210321426391602</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.143463134765625</v>
+        <v>-4.143051147460938</v>
       </c>
       <c r="L8" t="n">
-        <v>6.556233905429595</v>
+        <v>6.555962056773849</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
-        <v>-177.1850128173828</v>
+        <v>-177.1850280761719</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.181690216064453</v>
+        <v>-1.181697845458984</v>
       </c>
       <c r="H9" t="n">
-        <v>121.2407073974609</v>
+        <v>121.2406997680664</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.91644287109375</v>
+        <v>-3.916458129882812</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.181690216064453</v>
+        <v>-1.181697845458984</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.838394165039062</v>
+        <v>-3.838005065917969</v>
       </c>
       <c r="L9" t="n">
-        <v>5.609651174136359</v>
+        <v>5.609397201758811</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-428.9712689298968</v>
+        <v>-428.9713512823641</v>
       </c>
       <c r="G10" t="n">
-        <v>383.4968715570606</v>
+        <v>383.4969573831313</v>
       </c>
       <c r="H10" t="n">
-        <v>-9.018028986904199</v>
+        <v>-9.018079283760613</v>
       </c>
       <c r="I10" t="n">
-        <v>-5.702699836044815</v>
+        <v>-5.70278218851206</v>
       </c>
       <c r="J10" t="n">
-        <v>1.660262670341808</v>
+        <v>1.660348496412553</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.892052424404199</v>
+        <v>-2.891706469582147</v>
       </c>
       <c r="L10" t="n">
-        <v>6.606150526597034</v>
+        <v>6.606091743638826</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-503.5299869436744</v>
+        <v>-503.5300176685674</v>
       </c>
       <c r="G11" t="n">
-        <v>383.4968715570606</v>
+        <v>383.4969573831313</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.018028986904199</v>
+        <v>-9.018079283760613</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.761417849822465</v>
+        <v>-8.761448574715416</v>
       </c>
       <c r="J11" t="n">
-        <v>1.660262670341808</v>
+        <v>1.660348496412553</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.892052424404199</v>
+        <v>-2.891706469582147</v>
       </c>
       <c r="L11" t="n">
-        <v>9.374587036196337</v>
+        <v>9.374524231295446</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-503.5299869436744</v>
+        <v>-503.5300176685674</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.056283817879802</v>
+        <v>-2.056289033867692</v>
       </c>
       <c r="H12" t="n">
-        <v>117.6502240805</v>
+        <v>117.6502044669629</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.761432682392979</v>
+        <v>-8.76146340728593</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.05627618848527</v>
+        <v>-2.056281404473161</v>
       </c>
       <c r="K12" t="n">
-        <v>-7.42887748199999</v>
+        <v>-7.428500367021485</v>
       </c>
       <c r="L12" t="n">
-        <v>11.6695841851371</v>
+        <v>11.66936810433328</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-424.6427307577144</v>
+        <v>-424.642797196738</v>
       </c>
       <c r="G13" t="n">
-        <v>-388.9554199960056</v>
+        <v>-388.9555314748013</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.132764136128372</v>
+        <v>-8.132814160987948</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.374161663862367</v>
+        <v>-1.374228102885979</v>
       </c>
       <c r="J13" t="n">
-        <v>-7.118811109286867</v>
+        <v>-7.118922588082512</v>
       </c>
       <c r="K13" t="n">
-        <v>-2.006787573628372</v>
+        <v>-2.006441346809481</v>
       </c>
       <c r="L13" t="n">
-        <v>7.522831132878389</v>
+        <v>7.522856410437438</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-503.5299869436744</v>
+        <v>-503.5300176685674</v>
       </c>
       <c r="G14" t="n">
-        <v>-388.9554199960056</v>
+        <v>-388.9555314748013</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.132764136128372</v>
+        <v>-8.132814160987948</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.761417849822465</v>
+        <v>-8.761448574715416</v>
       </c>
       <c r="J14" t="n">
-        <v>-7.118811109286867</v>
+        <v>-7.118922588082512</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.006787573628372</v>
+        <v>-2.006441346809481</v>
       </c>
       <c r="L14" t="n">
-        <v>11.46591081050969</v>
+        <v>11.46594291023119</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>503.9585016652546</v>
+        <v>503.9585474983957</v>
       </c>
       <c r="G15" t="n">
-        <v>388.2222798927069</v>
+        <v>388.2223834761148</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.55164697503093</v>
+        <v>-10.55165609879398</v>
       </c>
       <c r="I15" t="n">
-        <v>9.189932571402608</v>
+        <v>9.189978404543695</v>
       </c>
       <c r="J15" t="n">
-        <v>6.385671005988172</v>
+        <v>6.385774589396078</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.425670412530934</v>
+        <v>-4.425283284615517</v>
       </c>
       <c r="L15" t="n">
-        <v>12.03404393643285</v>
+        <v>12.03399153779217</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>425.7393005071947</v>
+        <v>425.7393460163427</v>
       </c>
       <c r="G16" t="n">
-        <v>388.2222798927069</v>
+        <v>388.2223834761148</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.55164697503093</v>
+        <v>-10.55165609879398</v>
       </c>
       <c r="I16" t="n">
-        <v>2.470731413342719</v>
+        <v>2.470776922490643</v>
       </c>
       <c r="J16" t="n">
-        <v>6.385671005988172</v>
+        <v>6.385774589396078</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.425670412530934</v>
+        <v>-4.425283284615517</v>
       </c>
       <c r="L16" t="n">
-        <v>8.152782746642291</v>
+        <v>8.152667530102431</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>503.9585016652546</v>
+        <v>503.9585474983957</v>
       </c>
       <c r="G17" t="n">
-        <v>4.923991048363598</v>
+        <v>4.924003395764441</v>
       </c>
       <c r="H17" t="n">
-        <v>120.3985025719008</v>
+        <v>120.3985150769703</v>
       </c>
       <c r="I17" t="n">
-        <v>9.189947403973122</v>
+        <v>9.189993237114209</v>
       </c>
       <c r="J17" t="n">
-        <v>4.92399867775813</v>
+        <v>4.924011025158972</v>
       </c>
       <c r="K17" t="n">
-        <v>-4.680598990599165</v>
+        <v>-4.680189757014077</v>
       </c>
       <c r="L17" t="n">
-        <v>11.42842522735106</v>
+        <v>11.428299805122</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>503.9585016652546</v>
+        <v>503.9585474983957</v>
       </c>
       <c r="G18" t="n">
-        <v>-381.7417720945684</v>
+        <v>-381.7418650677922</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.775342415523681</v>
+        <v>-2.775349287224927</v>
       </c>
       <c r="I18" t="n">
-        <v>9.189932571402608</v>
+        <v>9.189978404543695</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09483679215037455</v>
+        <v>0.09474381892653128</v>
       </c>
       <c r="K18" t="n">
-        <v>3.350634146976319</v>
+        <v>3.35102352695354</v>
       </c>
       <c r="L18" t="n">
-        <v>9.782157424155248</v>
+        <v>9.782332960260574</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>435.8552513747046</v>
+        <v>435.8553139791264</v>
       </c>
       <c r="G19" t="n">
-        <v>-381.7417720945684</v>
+        <v>-381.7418650677922</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.775342415523681</v>
+        <v>-2.775349287224927</v>
       </c>
       <c r="I19" t="n">
-        <v>12.58668228085259</v>
+        <v>12.58674488527441</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09483679215037455</v>
+        <v>0.09474381892653128</v>
       </c>
       <c r="K19" t="n">
-        <v>3.350634146976319</v>
+        <v>3.35102352695354</v>
       </c>
       <c r="L19" t="n">
-        <v>13.02537193492599</v>
+        <v>13.02553192297353</v>
       </c>
     </row>
   </sheetData>
